--- a/DATA_goal/Junction_Flooding_245.xlsx
+++ b/DATA_goal/Junction_Flooding_245.xlsx
@@ -461,15 +461,15 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41677.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46.85</v>
+        <v>4.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.75</v>
+        <v>3.88</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>57.93</v>
+        <v>5.79</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.45</v>
+        <v>1.14</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.47</v>
+        <v>1.95</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.52</v>
+        <v>2.45</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>258.18</v>
+        <v>25.82</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>48.57</v>
+        <v>4.86</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.19</v>
+        <v>3.22</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.8</v>
+        <v>1.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.86</v>
+        <v>2.89</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.1</v>
+        <v>5.11</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41677.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.6</v>
+        <v>2.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.79</v>
+        <v>3.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.09</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>139.19</v>
+        <v>13.92</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.02</v>
+        <v>2.7</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.84</v>
+        <v>1.78</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>1.09</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>10.93</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36</v>
+        <v>3.6</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41677.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.35</v>
+        <v>0.84</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.75</v>
+        <v>2.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.69</v>
+        <v>3.67</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.19</v>
+        <v>1.42</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.95</v>
+        <v>0.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>132.3</v>
+        <v>13.23</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.67</v>
+        <v>2.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>17.05</v>
+        <v>1.7</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.17</v>
+        <v>0.92</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.48</v>
+        <v>0.75</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.05</v>
+        <v>3.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41677.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.53</v>
+        <v>2.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.59</v>
+        <v>2.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.53</v>
+        <v>4.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.55</v>
+        <v>1.15</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.7</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>150.61</v>
+        <v>15.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.01</v>
+        <v>2.9</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.38</v>
+        <v>1.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.54</v>
+        <v>1.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.57</v>
+        <v>3.66</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41677.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>25.66</v>
+        <v>2.57</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>21.22</v>
+        <v>2.12</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>37.25</v>
+        <v>3.72</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>134.59</v>
+        <v>13.46</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>26.1</v>
+        <v>2.61</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>17.46</v>
+        <v>1.75</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.79</v>
+        <v>0.68</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>33.7</v>
+        <v>3.37</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41677.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q7" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.15</v>
-      </c>
       <c r="R7" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>120.86</v>
+        <v>12.09</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>23.58</v>
+        <v>2.36</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>7.19</v>
+        <v>0.72</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.55</v>
+        <v>3.06</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41677.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>20.51</v>
+        <v>2.05</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>105.98</v>
+        <v>10.6</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.85</v>
+        <v>2.08</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.38</v>
+        <v>1.44</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>27.15</v>
+        <v>2.72</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41677.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>18.34</v>
+        <v>1.83</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>54.49</v>
+        <v>5.45</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AD9" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>4.73</v>
-      </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.69</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41677.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AD10" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.91</v>
-      </c>
       <c r="AG10" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_245.xlsx
+++ b/DATA_goal/Junction_Flooding_245.xlsx
@@ -452,7 +452,7 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -469,9 +469,9 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44926.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44926.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.37</v>
+        <v>23.68</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.13</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.39</v>
+        <v>123.89</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.37</v>
+        <v>23.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.22</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.57</v>
+        <v>25.74</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44926.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.67</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.17</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.69</v>
+        <v>106.89</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.73</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.65</v>
+        <v>26.48</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44926.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.24</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.79</v>
+        <v>47.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.48</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.57</v>
+        <v>255.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.81</v>
+        <v>48.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.25</v>
+        <v>32.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.62</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.37</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.85</v>
+        <v>58.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_245.xlsx
+++ b/DATA_goal/Junction_Flooding_245.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,38 +443,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,82 +759,82 @@
         <v>44926.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.26</v>
+        <v>11.261</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.782999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.68</v>
+        <v>23.682</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.34</v>
+        <v>20.343</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.13</v>
+        <v>29.129</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.81</v>
+        <v>12.807</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.9</v>
+        <v>5.897</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.32</v>
+        <v>9.318</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.91</v>
+        <v>9.913</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.956</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.18</v>
+        <v>12.181</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.02</v>
+        <v>7.024</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>123.89</v>
+        <v>123.894</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.72</v>
+        <v>23.725</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.7</v>
+        <v>7.699</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.98</v>
+        <v>8.983000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.157</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>16.19</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.43</v>
+        <v>6.429</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>7.22</v>
@@ -843,19 +843,19 @@
         <v>6.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.28</v>
+        <v>10.276</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>25.74</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.82</v>
+        <v>4.818</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.67</v>
+        <v>9.667</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44926.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.776999999999999</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.5</v>
+        <v>7.505</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.67</v>
+        <v>20.671</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.61</v>
+        <v>17.611</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.38</v>
+        <v>7.383</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.46</v>
+        <v>29.461</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.278</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>8.032999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.75</v>
+        <v>8.753</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>2.37</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.37</v>
+        <v>7.374</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.68</v>
+        <v>10.682</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.17</v>
+        <v>6.169</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>106.89</v>
+        <v>106.885</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>20.79</v>
+        <v>20.787</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.741</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14</v>
+        <v>13.998</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.73</v>
+        <v>7.727</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.24</v>
+        <v>15.241</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.71</v>
+        <v>5.708</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.06</v>
+        <v>6.057</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.084</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.93</v>
+        <v>8.929</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.48</v>
+        <v>26.476</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>4.15</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>8.465999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44926.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.45</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.84</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.06</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_245.xlsx
+++ b/DATA_goal/Junction_Flooding_245.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,16 +967,16 @@
         <v>44926.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.24</v>
+        <v>22.236</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.8</v>
+        <v>16.805</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.9</v>
+        <v>47.904</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>40</v>
@@ -988,67 +988,67 @@
         <v>64.79000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.51</v>
+        <v>26.505</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12</v>
+        <v>12.001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.12</v>
+        <v>18.125</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.37</v>
+        <v>19.368</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.34</v>
+        <v>20.338</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.18</v>
+        <v>17.178</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.69</v>
+        <v>24.687</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.292</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.493</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.526</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.74</v>
+        <v>255.741</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.09</v>
+        <v>48.085</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.81</v>
+        <v>15.809</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.54</v>
+        <v>32.545</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.37</v>
+        <v>17.372</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.272</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.62</v>
+        <v>32.618</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>13.78</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.87</v>
+        <v>12.873</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.38</v>
+        <v>14.379</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>20.37</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.47</v>
+        <v>58.469</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.25</v>
+        <v>9.254</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.8</v>
+        <v>19.797</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44926.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.93</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.44</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.45</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192.84</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.66</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>47.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.06</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_245.xlsx
+++ b/DATA_goal/Junction_Flooding_245.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,16 +967,16 @@
         <v>44926.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.236</v>
+        <v>22.24</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.805</v>
+        <v>16.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.918</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.904</v>
+        <v>47.9</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>40</v>
@@ -988,67 +988,67 @@
         <v>64.79000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.505</v>
+        <v>26.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.001</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.125</v>
+        <v>18.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.368</v>
+        <v>19.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.338</v>
+        <v>20.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.528</v>
+        <v>5.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.178</v>
+        <v>17.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.687</v>
+        <v>24.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.292</v>
+        <v>14.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.493</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.526</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.741</v>
+        <v>255.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>48.085</v>
+        <v>48.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.809</v>
+        <v>15.81</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.545</v>
+        <v>32.54</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.372</v>
+        <v>17.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.272</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.618</v>
+        <v>32.62</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>13.78</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.873</v>
+        <v>12.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.379</v>
+        <v>14.38</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>20.37</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.469</v>
+        <v>58.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.254</v>
+        <v>9.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.797</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44926.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.45</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.84</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.66</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.06</v>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
